--- a/EPAYGOLF/wwwroot/Document/SalesMonthlyReporting.xlsx
+++ b/EPAYGOLF/wwwroot/Document/SalesMonthlyReporting.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Sales Monthly Report</t>
   </si>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">REPORTING PERIOD: </t>
   </si>
   <si>
-    <t>01-Jul-2023 To 01-Sep-2024</t>
+    <t>01-Aug-2023 To 31-Aug-2023</t>
   </si>
   <si>
     <t xml:space="preserve">GGC TOTAL NET AMOUNT: </t>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Aug-2023</t>
-  </si>
-  <si>
-    <t>Jul-2024</t>
   </si>
 </sst>
 </file>
@@ -153,8 +150,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:L11" headerRowCount="1">
-  <autoFilter ref="A7:L11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:L10" headerRowCount="1">
+  <autoFilter ref="A7:L10"/>
   <tableColumns count="12">
     <tableColumn id="1" name="TransactionDateTime"/>
     <tableColumn id="2" name="Value"/>
@@ -176,7 +173,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" state="frozen" activePane="bottomLeft"/>
@@ -186,7 +183,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.436996459960938" customWidth="1"/>
-    <col min="2" max="2" width="27.640247344970703" customWidth="1"/>
+    <col min="2" max="2" width="29.069934844970703" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="13.544299125671387" customWidth="1"/>
     <col min="5" max="5" width="18.38544464111328" customWidth="1"/>
@@ -233,7 +230,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="5">
-        <v>27.35</v>
+        <v>32.07</v>
       </c>
     </row>
     <row r="6">
@@ -241,7 +238,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -287,79 +284,41 @@
         <v>21</v>
       </c>
       <c r="B8" s="4">
-        <v>110</v>
+        <v>315</v>
       </c>
       <c r="C8" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>14.3</v>
+        <v>40.95</v>
       </c>
       <c r="F8" s="4">
-        <v>-1.1</v>
+        <v>-3.15</v>
       </c>
       <c r="G8" s="4">
-        <v>-1.65</v>
+        <v>-4.725</v>
       </c>
       <c r="H8" s="4">
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="I8" s="4">
-        <v>11.35</v>
+        <v>32.07</v>
       </c>
       <c r="J8" s="4">
         <v>-110</v>
       </c>
       <c r="K8" s="4">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="L8" s="4">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="4">
-        <v>160</v>
-      </c>
-      <c r="C9" s="0">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>20.8</v>
-      </c>
-      <c r="F9" s="4">
-        <v>-1.6</v>
-      </c>
-      <c r="G9" s="4">
-        <v>-2.4</v>
-      </c>
-      <c r="H9" s="4">
-        <v>-0.8</v>
-      </c>
-      <c r="I9" s="4">
-        <v>16</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>160</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-    </row>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9"/>
     <row r="10"/>
-    <row r="11"/>
   </sheetData>
   <headerFooter/>
   <tableParts>

--- a/EPAYGOLF/wwwroot/Document/SalesMonthlyReporting.xlsx
+++ b/EPAYGOLF/wwwroot/Document/SalesMonthlyReporting.xlsx
@@ -7,7 +7,7 @@
   <sheets>
     <sheet name="SalesMonthly" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1" fullPrecision="1"/>
 </workbook>
 </file>
 
@@ -20,7 +20,7 @@
     <t xml:space="preserve">STORE NAME: </t>
   </si>
   <si>
-    <t>0 | All Stores</t>
+    <t xml:space="preserve">GZQW2Y8 | </t>
   </si>
   <si>
     <t xml:space="preserve">PRODUCT NAME: </t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">REPORTING PERIOD: </t>
   </si>
   <si>
-    <t>01-Aug-2023 To 31-Aug-2023</t>
+    <t>01-Jul-2024 To 02-Feb-2025</t>
   </si>
   <si>
     <t xml:space="preserve">GGC TOTAL NET AMOUNT: </t>
@@ -77,7 +77,7 @@
     <t>Breakage</t>
   </si>
   <si>
-    <t>Aug-2023</t>
+    <t>Jan-2025</t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.436996459960938" customWidth="1"/>
-    <col min="2" max="2" width="29.069934844970703" customWidth="1"/>
+    <col min="2" max="2" width="27.607881546020508" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="13.544299125671387" customWidth="1"/>
     <col min="5" max="5" width="18.38544464111328" customWidth="1"/>
@@ -230,7 +230,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="5">
-        <v>32.07</v>
+        <v>26.65</v>
       </c>
     </row>
     <row r="6">
@@ -284,7 +284,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="4">
-        <v>315</v>
+        <v>205</v>
       </c>
       <c r="C8" s="0">
         <v>5</v>
@@ -293,28 +293,28 @@
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>40.95</v>
+        <v>26.65</v>
       </c>
       <c r="F8" s="4">
-        <v>-3.15</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>-4.725</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>32.07</v>
+        <v>26.65</v>
       </c>
       <c r="J8" s="4">
-        <v>-110</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4">
         <v>205</v>
       </c>
       <c r="L8" s="4">
-        <v>425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9"/>

--- a/EPAYGOLF/wwwroot/Document/SalesMonthlyReporting.xlsx
+++ b/EPAYGOLF/wwwroot/Document/SalesMonthlyReporting.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">STORE NAME: </t>
   </si>
   <si>
-    <t xml:space="preserve">GZQW2Y8 | </t>
+    <t>0 | All Stores</t>
   </si>
   <si>
     <t xml:space="preserve">PRODUCT NAME: </t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">REPORTING PERIOD: </t>
   </si>
   <si>
-    <t>01-Jul-2024 To 02-Feb-2025</t>
+    <t>01-Jul-2025 To 20-Jul-2025</t>
   </si>
   <si>
     <t xml:space="preserve">GGC TOTAL NET AMOUNT: </t>
@@ -77,7 +77,7 @@
     <t>Breakage</t>
   </si>
   <si>
-    <t>Jan-2025</t>
+    <t>Jul-2025</t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.436996459960938" customWidth="1"/>
-    <col min="2" max="2" width="27.607881546020508" customWidth="1"/>
+    <col min="2" max="2" width="26.699399948120117" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="13.544299125671387" customWidth="1"/>
     <col min="5" max="5" width="18.38544464111328" customWidth="1"/>
@@ -230,7 +230,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="5">
-        <v>26.65</v>
+        <v>127.78</v>
       </c>
     </row>
     <row r="6">
@@ -284,34 +284,34 @@
         <v>21</v>
       </c>
       <c r="B8" s="4">
-        <v>205</v>
+        <v>3564</v>
       </c>
       <c r="C8" s="0">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D8" s="4">
-        <v>0</v>
+        <v>-292.12</v>
       </c>
       <c r="E8" s="4">
-        <v>26.65</v>
+        <v>463.32</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>-35.64</v>
       </c>
       <c r="G8" s="4">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="H8" s="4">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="I8" s="4">
-        <v>26.65</v>
+        <v>127.78</v>
       </c>
       <c r="J8" s="4">
-        <v>0</v>
+        <v>-850</v>
       </c>
       <c r="K8" s="4">
-        <v>205</v>
+        <v>2714</v>
       </c>
       <c r="L8" s="4">
         <v>0</v>
